--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/ХХI-КПМ-30-1-500-Размова/ф-т ХХI-КПМ-30-1-500-Размова от 06.03.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/ХХI-КПМ-30-1-500-Размова/ф-т ХХI-КПМ-30-1-500-Размова от 06.03.2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\ХХI-КПМ-30-1-500-Размова\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38D44D8-8752-40C3-84EF-9A2EB4697BAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -40,7 +41,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$27</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -500,13 +508,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="58" x14ac:knownFonts="1">
     <font>
@@ -2183,7 +2191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="636">
@@ -3381,7 +3389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3396,7 +3404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3458,25 +3466,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3488,11 +3496,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3502,7 +3510,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3516,11 +3524,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
@@ -3532,13 +3540,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3551,7 +3559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3637,10 +3645,10 @@
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4019,8 +4027,8 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
@@ -4310,7 +4318,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4356,7 +4370,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4401,7 +4421,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4445,7 +4471,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4494,7 +4526,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1"/>
+        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4540,7 +4578,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4584,7 +4628,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4628,7 +4678,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4677,7 +4733,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4723,7 +4785,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4767,7 +4835,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4811,7 +4885,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4860,7 +4940,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4906,7 +4992,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4950,7 +5042,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4994,7 +5092,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5043,7 +5147,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5089,7 +5199,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5133,7 +5249,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5177,7 +5299,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5226,7 +5354,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5272,7 +5406,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5316,7 +5456,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5360,7 +5506,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5404,7 +5556,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5447,7 +5605,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5493,7 +5657,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5537,7 +5707,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5581,7 +5757,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5630,7 +5812,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5676,7 +5864,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5720,7 +5914,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5764,7 +5964,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5813,7 +6019,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE"/>
+        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5859,7 +6071,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5903,7 +6121,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5947,7 +6171,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5996,7 +6226,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6042,7 +6278,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6086,7 +6328,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6130,7 +6378,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6238,6 +6492,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6273,6 +6544,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6448,22 +6736,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="487" t="s">
         <v>81</v>
       </c>
@@ -6475,7 +6763,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="488" t="s">
         <v>137</v>
       </c>
@@ -6487,12 +6775,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G3" s="369" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="492" t="s">
         <v>82</v>
       </c>
@@ -6501,7 +6789,7 @@
       <c r="D4" s="493"/>
       <c r="E4" s="493"/>
     </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="494" t="s">
         <v>86</v>
       </c>
@@ -6510,8 +6798,8 @@
       <c r="D5" s="495"/>
       <c r="E5" s="496"/>
     </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="487" t="s">
         <v>83</v>
       </c>
@@ -6520,14 +6808,14 @@
       <c r="D7" s="491"/>
       <c r="E7" s="491"/>
     </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="497"/>
       <c r="B8" s="498"/>
       <c r="C8" s="498"/>
       <c r="D8" s="498"/>
       <c r="E8" s="499"/>
     </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="487" t="s">
         <v>84</v>
       </c>
@@ -6541,7 +6829,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="485"/>
       <c r="B11" s="486"/>
       <c r="D11" s="376">
@@ -6558,7 +6846,7 @@
       </c>
       <c r="K11" s="501"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F12" s="500" t="s">
         <v>85</v>
       </c>
@@ -6570,7 +6858,7 @@
       </c>
       <c r="K12" s="501"/>
     </row>
-    <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="381" t="s">
         <v>87</v>
       </c>
@@ -6597,7 +6885,7 @@
       </c>
       <c r="K13" s="501"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="372" t="s">
         <v>43</v>
       </c>
@@ -6615,7 +6903,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="372" t="s">
         <v>44</v>
       </c>
@@ -6633,7 +6921,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="372" t="s">
         <v>38</v>
       </c>
@@ -6651,7 +6939,7 @@
         <v>1094.4000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="372" t="s">
         <v>23</v>
       </c>
@@ -6669,7 +6957,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="372" t="s">
         <v>47</v>
       </c>
@@ -6687,7 +6975,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="372" t="s">
         <v>89</v>
       </c>
@@ -6705,7 +6993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="372" t="s">
         <v>51</v>
       </c>
@@ -6723,7 +7011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="372" t="s">
         <v>53</v>
       </c>
@@ -6741,7 +7029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="372" t="s">
         <v>90</v>
       </c>
@@ -6755,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="372" t="s">
         <v>56</v>
       </c>
@@ -6773,7 +7061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="372" t="s">
         <v>70</v>
       </c>
@@ -6791,7 +7079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="372" t="s">
         <v>91</v>
       </c>
@@ -6803,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="374" t="s">
         <v>55</v>
       </c>
@@ -6821,7 +7109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="374" t="s">
         <v>104</v>
       </c>
@@ -6832,7 +7120,7 @@
       <c r="D27" s="373"/>
       <c r="E27" s="373"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="378"/>
       <c r="D28" s="377"/>
       <c r="E28" s="377">
@@ -6847,14 +7135,14 @@
         <v>195.59999999999991</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="484" t="s">
         <v>105</v>
       </c>
       <c r="B29" s="484"/>
       <c r="C29" s="484"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -6883,7 +7171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -6893,20 +7181,20 @@
       <selection pane="bottomRight" activeCell="D6" sqref="D6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="168" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="168" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="168" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="168" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="168" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="168" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="168" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="168" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="168" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="168" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="168" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="168" customWidth="1"/>
     <col min="8" max="18" width="9" style="168" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="168" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="168"/>
+    <col min="19" max="19" width="1.42578125" style="168" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="168"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="164"/>
       <c r="B1" s="165"/>
       <c r="C1" s="166"/>
@@ -6927,7 +7215,7 @@
       <c r="R1" s="166"/>
       <c r="S1" s="167"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="169"/>
       <c r="B2" s="590"/>
       <c r="C2" s="591"/>
@@ -6955,7 +7243,7 @@
       <c r="R2" s="173"/>
       <c r="S2" s="174"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="169"/>
       <c r="B3" s="593"/>
       <c r="C3" s="594"/>
@@ -6978,7 +7266,7 @@
       <c r="R3" s="177"/>
       <c r="S3" s="174"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="169"/>
       <c r="B4" s="596"/>
       <c r="C4" s="597"/>
@@ -6999,7 +7287,7 @@
       <c r="R4" s="177"/>
       <c r="S4" s="174"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="169"/>
       <c r="B5" s="577" t="s">
         <v>13</v>
@@ -7025,7 +7313,7 @@
       <c r="R5" s="177"/>
       <c r="S5" s="174"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="169"/>
       <c r="B6" s="577" t="s">
         <v>12</v>
@@ -7051,7 +7339,7 @@
       <c r="R6" s="177"/>
       <c r="S6" s="174"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="169"/>
       <c r="B7" s="541" t="s">
         <v>14</v>
@@ -7082,7 +7370,7 @@
       <c r="R7" s="177"/>
       <c r="S7" s="174"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="179"/>
       <c r="B8" s="180"/>
       <c r="C8" s="181"/>
@@ -7103,7 +7391,7 @@
       <c r="R8" s="184"/>
       <c r="S8" s="185"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="186"/>
       <c r="B9" s="253" t="s">
         <v>17</v>
@@ -7136,7 +7424,7 @@
       <c r="R9" s="345"/>
       <c r="S9" s="201"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="179"/>
       <c r="B10" s="188" t="s">
         <v>25</v>
@@ -7171,7 +7459,7 @@
       <c r="R10" s="347"/>
       <c r="S10" s="185"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="179"/>
       <c r="B11" s="190" t="s">
         <v>26</v>
@@ -7204,7 +7492,7 @@
       <c r="R11" s="349"/>
       <c r="S11" s="185"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="179"/>
       <c r="B12" s="190" t="s">
         <v>2</v>
@@ -7237,7 +7525,7 @@
       <c r="R12" s="349"/>
       <c r="S12" s="185"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="179"/>
       <c r="B13" s="190" t="s">
         <v>3</v>
@@ -7270,7 +7558,7 @@
       <c r="R13" s="349"/>
       <c r="S13" s="185"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="179"/>
       <c r="B14" s="190" t="s">
         <v>27</v>
@@ -7303,7 +7591,7 @@
       <c r="R14" s="349"/>
       <c r="S14" s="185"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="179"/>
       <c r="B15" s="190" t="s">
         <v>28</v>
@@ -7336,7 +7624,7 @@
       <c r="R15" s="349"/>
       <c r="S15" s="185"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="179"/>
       <c r="B16" s="190" t="s">
         <v>4</v>
@@ -7369,7 +7657,7 @@
       <c r="R16" s="349"/>
       <c r="S16" s="185"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="179"/>
       <c r="B17" s="190" t="s">
         <v>9</v>
@@ -7402,7 +7690,7 @@
       <c r="R17" s="349"/>
       <c r="S17" s="185"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="179"/>
       <c r="B18" s="190" t="s">
         <v>5</v>
@@ -7435,7 +7723,7 @@
       <c r="R18" s="349"/>
       <c r="S18" s="185"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="192"/>
       <c r="B19" s="193"/>
       <c r="C19" s="193"/>
@@ -7456,8 +7744,8 @@
       <c r="R19" s="193"/>
       <c r="S19" s="195"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L21" s="616" t="s">
         <v>136</v>
       </c>
@@ -7506,7 +7794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7516,20 +7804,20 @@
       <selection pane="bottomRight" activeCell="L21" sqref="L21:P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="207" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="207" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="207" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="207" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="207" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="207" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="207" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="207" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="207" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="207" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="207" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="207" customWidth="1"/>
     <col min="8" max="18" width="9" style="207" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="207" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="207"/>
+    <col min="19" max="19" width="1.42578125" style="207" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="207"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="203"/>
       <c r="B1" s="204"/>
       <c r="C1" s="205"/>
@@ -7550,7 +7838,7 @@
       <c r="R1" s="205"/>
       <c r="S1" s="206"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="208"/>
       <c r="B2" s="590"/>
       <c r="C2" s="591"/>
@@ -7578,7 +7866,7 @@
       <c r="R2" s="212"/>
       <c r="S2" s="213"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="208"/>
       <c r="B3" s="593"/>
       <c r="C3" s="594"/>
@@ -7601,7 +7889,7 @@
       <c r="R3" s="216"/>
       <c r="S3" s="213"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="208"/>
       <c r="B4" s="596"/>
       <c r="C4" s="597"/>
@@ -7622,7 +7910,7 @@
       <c r="R4" s="216"/>
       <c r="S4" s="213"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="208"/>
       <c r="B5" s="577" t="s">
         <v>13</v>
@@ -7648,7 +7936,7 @@
       <c r="R5" s="216"/>
       <c r="S5" s="213"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="208"/>
       <c r="B6" s="577" t="s">
         <v>12</v>
@@ -7674,7 +7962,7 @@
       <c r="R6" s="216"/>
       <c r="S6" s="213"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="208"/>
       <c r="B7" s="541" t="s">
         <v>14</v>
@@ -7705,7 +7993,7 @@
       <c r="R7" s="216"/>
       <c r="S7" s="213"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="218"/>
       <c r="B8" s="219"/>
       <c r="C8" s="220"/>
@@ -7726,7 +8014,7 @@
       <c r="R8" s="223"/>
       <c r="S8" s="224"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="225"/>
       <c r="B9" s="253" t="s">
         <v>17</v>
@@ -7759,7 +8047,7 @@
       <c r="R9" s="227"/>
       <c r="S9" s="228"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="218"/>
       <c r="B10" s="229" t="s">
         <v>25</v>
@@ -7792,7 +8080,7 @@
       <c r="R10" s="233"/>
       <c r="S10" s="224"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="218"/>
       <c r="B11" s="234" t="s">
         <v>26</v>
@@ -7825,7 +8113,7 @@
       <c r="R11" s="238"/>
       <c r="S11" s="224"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="218"/>
       <c r="B12" s="234" t="s">
         <v>2</v>
@@ -7858,7 +8146,7 @@
       <c r="R12" s="238"/>
       <c r="S12" s="224"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="218"/>
       <c r="B13" s="234" t="s">
         <v>3</v>
@@ -7891,7 +8179,7 @@
       <c r="R13" s="238"/>
       <c r="S13" s="224"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="218"/>
       <c r="B14" s="234" t="s">
         <v>27</v>
@@ -7924,7 +8212,7 @@
       <c r="R14" s="238"/>
       <c r="S14" s="224"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="218"/>
       <c r="B15" s="234" t="s">
         <v>28</v>
@@ -7957,7 +8245,7 @@
       <c r="R15" s="238"/>
       <c r="S15" s="224"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="218"/>
       <c r="B16" s="234" t="s">
         <v>9</v>
@@ -7990,7 +8278,7 @@
       <c r="R16" s="238"/>
       <c r="S16" s="224"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="218"/>
       <c r="B17" s="234" t="s">
         <v>5</v>
@@ -8023,7 +8311,7 @@
       <c r="R17" s="238"/>
       <c r="S17" s="224"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="218"/>
       <c r="B18" s="626" t="s">
         <v>54</v>
@@ -8050,7 +8338,7 @@
       <c r="R18" s="242"/>
       <c r="S18" s="224"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="243"/>
       <c r="B19" s="244"/>
       <c r="C19" s="244"/>
@@ -8071,8 +8359,8 @@
       <c r="R19" s="244"/>
       <c r="S19" s="246"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L21" s="616" t="s">
         <v>136</v>
       </c>
@@ -8131,7 +8419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8141,20 +8429,20 @@
       <selection pane="bottomRight" activeCell="L22" sqref="L22:P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8175,7 +8463,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="132"/>
       <c r="B2" s="590"/>
       <c r="C2" s="591"/>
@@ -8203,7 +8491,7 @@
       <c r="R2" s="136"/>
       <c r="S2" s="137"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="132"/>
       <c r="B3" s="593"/>
       <c r="C3" s="594"/>
@@ -8226,7 +8514,7 @@
       <c r="R3" s="140"/>
       <c r="S3" s="137"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="132"/>
       <c r="B4" s="596"/>
       <c r="C4" s="597"/>
@@ -8247,7 +8535,7 @@
       <c r="R4" s="140"/>
       <c r="S4" s="137"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="132"/>
       <c r="B5" s="577" t="s">
         <v>13</v>
@@ -8273,7 +8561,7 @@
       <c r="R5" s="140"/>
       <c r="S5" s="137"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="132"/>
       <c r="B6" s="577" t="s">
         <v>12</v>
@@ -8299,7 +8587,7 @@
       <c r="R6" s="140"/>
       <c r="S6" s="137"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="132"/>
       <c r="B7" s="541" t="s">
         <v>14</v>
@@ -8330,7 +8618,7 @@
       <c r="R7" s="140"/>
       <c r="S7" s="137"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="142"/>
       <c r="C8" s="143"/>
@@ -8351,7 +8639,7 @@
       <c r="R8" s="146"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="147"/>
       <c r="B9" s="253" t="s">
         <v>17</v>
@@ -8384,7 +8672,7 @@
       <c r="R9" s="150"/>
       <c r="S9" s="151"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="152"/>
       <c r="B10" s="153" t="s">
         <v>25</v>
@@ -8417,7 +8705,7 @@
       <c r="R10" s="155"/>
       <c r="S10" s="156"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="152"/>
       <c r="B11" s="153" t="s">
         <v>26</v>
@@ -8450,7 +8738,7 @@
       <c r="R11" s="155"/>
       <c r="S11" s="156"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="152"/>
       <c r="B12" s="153" t="s">
         <v>2</v>
@@ -8483,7 +8771,7 @@
       <c r="R12" s="155"/>
       <c r="S12" s="156"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="152"/>
       <c r="B13" s="153" t="s">
         <v>3</v>
@@ -8516,7 +8804,7 @@
       <c r="R13" s="155"/>
       <c r="S13" s="156"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="152"/>
       <c r="B14" s="153" t="s">
         <v>27</v>
@@ -8549,7 +8837,7 @@
       <c r="R14" s="155"/>
       <c r="S14" s="156"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="152"/>
       <c r="B15" s="153" t="s">
         <v>28</v>
@@ -8582,7 +8870,7 @@
       <c r="R15" s="155"/>
       <c r="S15" s="156"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="152"/>
       <c r="B16" s="153" t="s">
         <v>4</v>
@@ -8615,7 +8903,7 @@
       <c r="R16" s="155"/>
       <c r="S16" s="156"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96"/>
       <c r="C17" s="97"/>
@@ -8636,7 +8924,7 @@
       <c r="R17" s="99"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="96"/>
       <c r="C18" s="97"/>
@@ -8657,7 +8945,7 @@
       <c r="R18" s="99"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="103"/>
       <c r="C19" s="104"/>
@@ -8678,7 +8966,7 @@
       <c r="R19" s="108"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="109"/>
       <c r="B20" s="110"/>
       <c r="C20" s="110"/>
@@ -8699,8 +8987,8 @@
       <c r="R20" s="112"/>
       <c r="S20" s="113"/>
     </row>
-    <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L22" s="616" t="s">
         <v>136</v>
       </c>
@@ -8749,7 +9037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8759,20 +9047,20 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="264" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="264" customWidth="1"/>
     <col min="2" max="2" width="5" style="264" customWidth="1"/>
     <col min="3" max="3" width="11" style="264" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="264" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="264" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="264" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="264" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="264" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="264" customWidth="1"/>
     <col min="8" max="18" width="9" style="264" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="264" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="264"/>
+    <col min="19" max="19" width="1.42578125" style="264" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="264"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="260"/>
       <c r="B1" s="261"/>
       <c r="C1" s="262"/>
@@ -8793,7 +9081,7 @@
       <c r="R1" s="262"/>
       <c r="S1" s="263"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="265"/>
       <c r="B2" s="590"/>
       <c r="C2" s="591"/>
@@ -8821,7 +9109,7 @@
       <c r="R2" s="269"/>
       <c r="S2" s="270"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="265"/>
       <c r="B3" s="593"/>
       <c r="C3" s="594"/>
@@ -8844,7 +9132,7 @@
       <c r="R3" s="273"/>
       <c r="S3" s="270"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="265"/>
       <c r="B4" s="596"/>
       <c r="C4" s="597"/>
@@ -8865,7 +9153,7 @@
       <c r="R4" s="273"/>
       <c r="S4" s="270"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="265"/>
       <c r="B5" s="577" t="s">
         <v>13</v>
@@ -8891,7 +9179,7 @@
       <c r="R5" s="273"/>
       <c r="S5" s="270"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="265"/>
       <c r="B6" s="577" t="s">
         <v>12</v>
@@ -8917,7 +9205,7 @@
       <c r="R6" s="273"/>
       <c r="S6" s="270"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="265"/>
       <c r="B7" s="541" t="s">
         <v>14</v>
@@ -8948,7 +9236,7 @@
       <c r="R7" s="273"/>
       <c r="S7" s="270"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="275"/>
       <c r="B8" s="276"/>
       <c r="C8" s="277"/>
@@ -8969,7 +9257,7 @@
       <c r="R8" s="280"/>
       <c r="S8" s="281"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="282"/>
       <c r="B9" s="253" t="s">
         <v>17</v>
@@ -9002,7 +9290,7 @@
       <c r="R9" s="351"/>
       <c r="S9" s="284"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="275"/>
       <c r="B10" s="285" t="s">
         <v>25</v>
@@ -9035,7 +9323,7 @@
       <c r="R10" s="353"/>
       <c r="S10" s="281"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="275"/>
       <c r="B11" s="289" t="s">
         <v>26</v>
@@ -9068,7 +9356,7 @@
       <c r="R11" s="354"/>
       <c r="S11" s="281"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="275"/>
       <c r="B12" s="289" t="s">
         <v>2</v>
@@ -9101,7 +9389,7 @@
       <c r="R12" s="356"/>
       <c r="S12" s="281"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="275"/>
       <c r="B13" s="289" t="s">
         <v>28</v>
@@ -9134,7 +9422,7 @@
       <c r="R13" s="356"/>
       <c r="S13" s="281"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="275"/>
       <c r="B14" s="289" t="s">
         <v>4</v>
@@ -9167,7 +9455,7 @@
       <c r="R14" s="356"/>
       <c r="S14" s="281"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="275"/>
       <c r="B15" s="295"/>
       <c r="C15" s="296"/>
@@ -9188,7 +9476,7 @@
       <c r="R15" s="338"/>
       <c r="S15" s="281"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="298"/>
       <c r="B16" s="299"/>
       <c r="C16" s="299"/>
@@ -9209,8 +9497,8 @@
       <c r="R16" s="299"/>
       <c r="S16" s="301"/>
     </row>
-    <row r="17" spans="12:16" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L18" s="616" t="s">
         <v>136</v>
       </c>
@@ -9221,9 +9509,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -9240,6 +9525,9 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9265,30 +9553,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="387"/>
       <c r="B1" s="480" t="s">
         <v>108</v>
@@ -9307,7 +9595,7 @@
       <c r="K1" s="387"/>
       <c r="L1" s="387"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="387"/>
       <c r="B2" s="387" t="s">
         <v>144</v>
@@ -9323,7 +9611,7 @@
       <c r="K2" s="388"/>
       <c r="L2" s="388"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="504" t="s">
         <v>109</v>
       </c>
@@ -9339,7 +9627,7 @@
       <c r="L3" s="389"/>
       <c r="M3" s="390"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="390"/>
       <c r="B4" s="391"/>
       <c r="C4" s="391"/>
@@ -9351,7 +9639,7 @@
       <c r="K4" s="389"/>
       <c r="M4" s="371"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="394" t="s">
         <v>110</v>
       </c>
@@ -9381,7 +9669,7 @@
       <c r="K5" s="398"/>
       <c r="L5" s="398"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="399">
         <v>1</v>
       </c>
@@ -9411,7 +9699,7 @@
       <c r="K6" s="390"/>
       <c r="L6" s="404"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="405">
         <f>A6+1</f>
         <v>2</v>
@@ -9442,7 +9730,7 @@
       <c r="K7" s="390"/>
       <c r="L7" s="404"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="405">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
@@ -9473,7 +9761,7 @@
       <c r="K8" s="390"/>
       <c r="L8" s="404"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="405">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -9504,7 +9792,7 @@
       <c r="K9" s="390"/>
       <c r="L9" s="404"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="405">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9535,7 +9823,7 @@
       <c r="K10" s="410"/>
       <c r="L10" s="404"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="405">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -9566,7 +9854,7 @@
       <c r="K11" s="390"/>
       <c r="L11" s="404"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="405">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -9598,7 +9886,7 @@
       <c r="L12" s="404"/>
       <c r="M12" s="412"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="405">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -9630,7 +9918,7 @@
       <c r="L13" s="404"/>
       <c r="M13" s="412"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="405">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -9663,7 +9951,7 @@
       <c r="K14" s="410"/>
       <c r="L14" s="404"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="405">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9694,7 +9982,7 @@
       <c r="K15" s="410"/>
       <c r="L15" s="404"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="405">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -9725,7 +10013,7 @@
       <c r="K16" s="410"/>
       <c r="L16" s="404"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="414">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -9755,7 +10043,7 @@
       <c r="K17" s="410"/>
       <c r="L17" s="404"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="421"/>
       <c r="B18" s="422"/>
       <c r="C18" s="390"/>
@@ -9767,7 +10055,7 @@
       <c r="I18" s="390"/>
       <c r="J18" s="390"/>
     </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="390"/>
       <c r="B19" s="424" t="s">
         <v>117</v>
@@ -9783,7 +10071,7 @@
       <c r="K19" s="425"/>
       <c r="L19" s="425"/>
     </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="394" t="s">
         <v>118</v>
       </c>
@@ -9815,7 +10103,7 @@
       <c r="K20" s="398"/>
       <c r="L20" s="398"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="429">
         <f>D6*700000</f>
         <v>16800000</v>
@@ -9851,30 +10139,40 @@
       <c r="K21" s="410"/>
       <c r="L21" s="410"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="437"/>
-      <c r="B22" s="438"/>
-      <c r="C22" s="438"/>
-      <c r="D22" s="438"/>
-      <c r="E22" s="439"/>
-      <c r="F22" s="439"/>
+      <c r="B22" s="438">
+        <v>43976</v>
+      </c>
+      <c r="C22" s="438">
+        <v>43979</v>
+      </c>
+      <c r="D22" s="438">
+        <v>43983</v>
+      </c>
+      <c r="E22" s="439">
+        <v>580230</v>
+      </c>
+      <c r="F22" s="439">
+        <v>610553</v>
+      </c>
       <c r="G22" s="433">
         <f>F22/A$21</f>
-        <v>0</v>
+        <v>3.634244047619048E-2</v>
       </c>
       <c r="H22" s="440">
         <f>H21-F22</f>
-        <v>16498882</v>
+        <v>15888329</v>
       </c>
       <c r="I22" s="441">
         <f>I21-G22</f>
-        <v>0.98207630952380953</v>
+        <v>0.94573386904761902</v>
       </c>
       <c r="J22" s="390"/>
       <c r="K22" s="390"/>
       <c r="L22" s="390"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="442"/>
       <c r="B23" s="443"/>
       <c r="C23" s="443"/>
@@ -9888,7 +10186,7 @@
       <c r="K23" s="410"/>
       <c r="L23" s="410"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="442"/>
       <c r="B24" s="382"/>
       <c r="C24" s="382"/>
@@ -9902,7 +10200,7 @@
       <c r="K24" s="436"/>
       <c r="L24" s="390"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="442"/>
       <c r="B25" s="443"/>
       <c r="C25" s="443"/>
@@ -9916,7 +10214,7 @@
       <c r="K25" s="450"/>
       <c r="L25" s="390"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="442"/>
       <c r="B26" s="443"/>
       <c r="C26" s="443"/>
@@ -9930,7 +10228,7 @@
       <c r="K26" s="436"/>
       <c r="L26" s="390"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="442"/>
       <c r="B27" s="443"/>
       <c r="C27" s="443"/>
@@ -9944,7 +10242,7 @@
       <c r="K27" s="436"/>
       <c r="L27" s="390"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="442"/>
       <c r="B28" s="443"/>
       <c r="C28" s="443"/>
@@ -9958,7 +10256,7 @@
       <c r="K28" s="436"/>
       <c r="L28" s="390"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="442"/>
       <c r="B29" s="443"/>
       <c r="C29" s="443"/>
@@ -9972,7 +10270,7 @@
       <c r="K29" s="436"/>
       <c r="L29" s="390"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="442"/>
       <c r="B30" s="443"/>
       <c r="C30" s="443"/>
@@ -9986,7 +10284,7 @@
       <c r="K30" s="436"/>
       <c r="L30" s="390"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="453"/>
       <c r="B31" s="454"/>
       <c r="C31" s="454"/>
@@ -10000,7 +10298,7 @@
       <c r="K31" s="390"/>
       <c r="L31" s="390"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="460" t="s">
         <v>127</v>
       </c>
@@ -10009,29 +10307,29 @@
       <c r="D32" s="462"/>
       <c r="E32" s="463">
         <f>SUM(E21:E31)</f>
-        <v>253260</v>
+        <v>833490</v>
       </c>
       <c r="F32" s="464">
         <f>SUM(F21:F31)</f>
-        <v>301118</v>
+        <v>911671</v>
       </c>
       <c r="G32" s="465">
         <f>SUM(G21:G31)</f>
-        <v>1.7923690476190475E-2</v>
+        <v>5.4266130952380955E-2</v>
       </c>
       <c r="H32" s="466">
         <f>A21-F32</f>
-        <v>16498882</v>
+        <v>15888329</v>
       </c>
       <c r="I32" s="467">
         <f>1-G32</f>
-        <v>0.98207630952380953</v>
+        <v>0.94573386904761902</v>
       </c>
       <c r="J32" s="468"/>
       <c r="K32" s="468"/>
       <c r="L32" s="468"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="390"/>
       <c r="B35" s="390"/>
       <c r="C35" s="390"/>
@@ -10043,7 +10341,7 @@
       <c r="I35" s="390"/>
       <c r="J35" s="390"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="505" t="s">
         <v>128</v>
       </c>
@@ -10057,7 +10355,7 @@
       <c r="I36" s="390"/>
       <c r="J36" s="390"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="506" t="s">
         <v>129</v>
       </c>
@@ -10075,19 +10373,19 @@
       <c r="I37" s="390"/>
       <c r="J37" s="390"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="507">
         <f>A21-F32</f>
-        <v>16498882</v>
+        <v>15888329</v>
       </c>
       <c r="B38" s="508"/>
       <c r="C38" s="470">
         <f>1-G32</f>
-        <v>0.98207630952380953</v>
+        <v>0.94573386904761902</v>
       </c>
       <c r="D38" s="471">
         <f>(C38/0.8)*100</f>
-        <v>122.75953869047618</v>
+        <v>118.21673363095238</v>
       </c>
       <c r="E38" s="472" t="s">
         <v>132</v>
@@ -10098,7 +10396,7 @@
       <c r="I38" s="472"/>
       <c r="J38" s="472"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="390"/>
       <c r="B39" s="390"/>
       <c r="C39" s="390"/>
@@ -10106,7 +10404,7 @@
       <c r="E39" s="390"/>
       <c r="F39" s="390"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="390"/>
       <c r="B40" s="390"/>
       <c r="C40" s="390"/>
@@ -10121,7 +10419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="390"/>
       <c r="B41" s="473"/>
       <c r="C41" s="473"/>
@@ -10133,7 +10431,7 @@
       <c r="I41" s="390"/>
       <c r="J41" s="390"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="474"/>
       <c r="B42" s="474"/>
       <c r="C42" s="474"/>
@@ -10145,7 +10443,7 @@
       <c r="I42" s="509"/>
       <c r="J42" s="510"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="475"/>
       <c r="B43" s="476"/>
       <c r="C43" s="476"/>
@@ -10155,7 +10453,7 @@
       <c r="G43" s="420"/>
       <c r="H43" s="476"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="475"/>
       <c r="B44" s="476"/>
       <c r="C44" s="476"/>
@@ -10165,7 +10463,7 @@
       <c r="G44" s="420"/>
       <c r="H44" s="476"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="475"/>
       <c r="B45" s="476"/>
       <c r="C45" s="476"/>
@@ -10175,7 +10473,7 @@
       <c r="G45" s="420"/>
       <c r="H45" s="476"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="475"/>
       <c r="B46" s="476"/>
       <c r="C46" s="476"/>
@@ -10185,7 +10483,7 @@
       <c r="G46" s="420"/>
       <c r="H46" s="476"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="475"/>
       <c r="B47" s="476"/>
       <c r="C47" s="476"/>
@@ -10195,7 +10493,7 @@
       <c r="G47" s="420"/>
       <c r="H47" s="476"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="475"/>
       <c r="B48" s="476"/>
       <c r="C48" s="410"/>
@@ -10205,7 +10503,7 @@
       <c r="G48" s="410"/>
       <c r="H48" s="410"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="475"/>
       <c r="B49" s="476"/>
       <c r="C49" s="476"/>
@@ -10215,7 +10513,7 @@
       <c r="G49" s="420"/>
       <c r="H49" s="476"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="475"/>
       <c r="B50" s="476"/>
       <c r="C50" s="476"/>
@@ -10225,7 +10523,7 @@
       <c r="G50" s="420"/>
       <c r="H50" s="476"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="475"/>
       <c r="B51" s="476"/>
       <c r="C51" s="476"/>
@@ -10235,7 +10533,7 @@
       <c r="G51" s="420"/>
       <c r="H51" s="476"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="390"/>
       <c r="B52" s="502"/>
       <c r="C52" s="502"/>
@@ -10247,7 +10545,7 @@
       <c r="I52" s="390"/>
       <c r="J52" s="390"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="474"/>
       <c r="B53" s="474"/>
       <c r="C53" s="474"/>
@@ -10259,7 +10557,7 @@
       <c r="I53" s="509"/>
       <c r="J53" s="510"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="475"/>
       <c r="B54" s="390"/>
       <c r="C54" s="390"/>
@@ -10271,7 +10569,7 @@
       <c r="I54" s="511"/>
       <c r="J54" s="511"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="475"/>
       <c r="B55" s="390"/>
       <c r="C55" s="390"/>
@@ -10283,7 +10581,7 @@
       <c r="I55" s="511"/>
       <c r="J55" s="511"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="390"/>
       <c r="B56" s="390"/>
       <c r="C56" s="390"/>
@@ -10293,11 +10591,11 @@
       <c r="G56" s="390"/>
       <c r="H56" s="390"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B61" s="509"/>
       <c r="C61" s="510"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="509"/>
       <c r="C68" s="510"/>
     </row>
@@ -10317,7 +10615,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="38" max="16383" man="1"/>
   </rowBreaks>
@@ -10325,26 +10623,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K60"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A43" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="306"/>
+    <col min="1" max="3" width="9.140625" style="306"/>
     <col min="4" max="4" width="8" style="306" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="306"/>
-    <col min="6" max="6" width="10.33203125" style="306" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="306" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="306" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="306" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="306"/>
+    <col min="5" max="5" width="9.140625" style="306"/>
+    <col min="6" max="6" width="10.28515625" style="306" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="306" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="306" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="306" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="306"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="366" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="366" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="315" t="s">
         <v>58</v>
       </c>
@@ -10353,7 +10651,7 @@
       <c r="J2" s="316"/>
       <c r="K2" s="316"/>
     </row>
-    <row r="3" spans="1:11" s="366" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="366" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="315" t="s">
         <v>100</v>
       </c>
@@ -10362,7 +10660,7 @@
       <c r="J3" s="316"/>
       <c r="K3" s="316"/>
     </row>
-    <row r="4" spans="1:11" s="366" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="366" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="315" t="s">
         <v>103</v>
       </c>
@@ -10371,8 +10669,8 @@
       <c r="J4" s="316"/>
       <c r="K4" s="316"/>
     </row>
-    <row r="5" spans="1:11" s="366" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="366" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="366" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="366" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="367"/>
       <c r="H6" s="315" t="s">
         <v>101</v>
@@ -10380,12 +10678,12 @@
       <c r="I6" s="316"/>
       <c r="J6" s="316"/>
     </row>
-    <row r="7" spans="1:11" s="366" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="366" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="316"/>
       <c r="I7" s="316"/>
       <c r="J7" s="316"/>
     </row>
-    <row r="8" spans="1:11" s="366" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="366" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="309" t="s">
         <v>59</v>
       </c>
@@ -10395,7 +10693,7 @@
       </c>
       <c r="J8" s="316"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="533" t="s">
         <v>64</v>
       </c>
@@ -10409,7 +10707,7 @@
       <c r="I11" s="533"/>
       <c r="J11" s="533"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="532" t="s">
         <v>73</v>
       </c>
@@ -10423,7 +10721,7 @@
       <c r="I12" s="532"/>
       <c r="J12" s="532"/>
     </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="534" t="str">
         <f>Данные!A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
@@ -10438,7 +10736,7 @@
       <c r="I13" s="533"/>
       <c r="J13" s="533"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="310" t="s">
         <v>60</v>
       </c>
@@ -10455,7 +10753,7 @@
       <c r="I15" s="310"/>
       <c r="J15" s="311"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="310" t="s">
         <v>94</v>
       </c>
@@ -10469,7 +10767,7 @@
       <c r="I16" s="310"/>
       <c r="J16" s="311"/>
     </row>
-    <row r="17" spans="1:10" s="368" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="318" t="s">
         <v>61</v>
       </c>
@@ -10490,7 +10788,7 @@
       </c>
       <c r="J17" s="311"/>
     </row>
-    <row r="18" spans="1:10" s="368" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="318" t="s">
         <v>61</v>
       </c>
@@ -10511,7 +10809,7 @@
       </c>
       <c r="J18" s="311"/>
     </row>
-    <row r="19" spans="1:10" s="368" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="368" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="319"/>
       <c r="B19" s="319"/>
       <c r="C19" s="319"/>
@@ -10529,7 +10827,7 @@
       </c>
       <c r="J19" s="311"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="310" t="s">
         <v>74</v>
       </c>
@@ -10546,7 +10844,7 @@
       </c>
       <c r="J20" s="311"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="310" t="s">
         <v>75</v>
       </c>
@@ -10560,7 +10858,7 @@
       <c r="I21" s="310"/>
       <c r="J21" s="311"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="535" t="s">
         <v>65</v>
       </c>
@@ -10582,7 +10880,7 @@
       <c r="I22" s="535"/>
       <c r="J22" s="535"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="535"/>
       <c r="B23" s="535"/>
       <c r="C23" s="535"/>
@@ -10594,7 +10892,7 @@
       <c r="I23" s="535"/>
       <c r="J23" s="535"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="512">
         <v>1</v>
       </c>
@@ -10616,7 +10914,7 @@
       <c r="I24" s="524"/>
       <c r="J24" s="525"/>
     </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="513"/>
       <c r="B25" s="529" t="str">
         <f>Данные!$A$30</f>
@@ -10631,7 +10929,7 @@
       <c r="I25" s="527"/>
       <c r="J25" s="528"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="512">
         <f>A24+1</f>
         <v>2</v>
@@ -10654,7 +10952,7 @@
       <c r="I26" s="524"/>
       <c r="J26" s="525"/>
     </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="513"/>
       <c r="B27" s="529" t="str">
         <f>Данные!$A$30</f>
@@ -10669,7 +10967,7 @@
       <c r="I27" s="527"/>
       <c r="J27" s="528"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="512">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
@@ -10692,7 +10990,7 @@
       <c r="I28" s="524"/>
       <c r="J28" s="525"/>
     </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="513"/>
       <c r="B29" s="529" t="str">
         <f>Данные!$A$30</f>
@@ -10707,7 +11005,7 @@
       <c r="I29" s="527"/>
       <c r="J29" s="528"/>
     </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="512">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
@@ -10730,7 +11028,7 @@
       <c r="I30" s="524"/>
       <c r="J30" s="525"/>
     </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="513"/>
       <c r="B31" s="529" t="str">
         <f>Данные!$A$30</f>
@@ -10745,7 +11043,7 @@
       <c r="I31" s="527"/>
       <c r="J31" s="528"/>
     </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="512">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
@@ -10768,7 +11066,7 @@
       <c r="I32" s="524"/>
       <c r="J32" s="525"/>
     </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="513"/>
       <c r="B33" s="529" t="str">
         <f>Данные!$A$30</f>
@@ -10783,7 +11081,7 @@
       <c r="I33" s="527"/>
       <c r="J33" s="528"/>
     </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="512">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
@@ -10806,7 +11104,7 @@
       <c r="I34" s="524"/>
       <c r="J34" s="525"/>
     </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="513"/>
       <c r="B35" s="529" t="str">
         <f>Данные!$A$30</f>
@@ -10821,7 +11119,7 @@
       <c r="I35" s="527"/>
       <c r="J35" s="528"/>
     </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="512">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
@@ -10844,7 +11142,7 @@
       <c r="I36" s="524"/>
       <c r="J36" s="525"/>
     </row>
-    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="513"/>
       <c r="B37" s="529" t="str">
         <f>Данные!$A$30</f>
@@ -10859,7 +11157,7 @@
       <c r="I37" s="527"/>
       <c r="J37" s="528"/>
     </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="512">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
@@ -10882,7 +11180,7 @@
       <c r="I38" s="524"/>
       <c r="J38" s="525"/>
     </row>
-    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="513"/>
       <c r="B39" s="529" t="str">
         <f>Данные!$A$30</f>
@@ -10897,7 +11195,7 @@
       <c r="I39" s="527"/>
       <c r="J39" s="528"/>
     </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="512">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
@@ -10920,7 +11218,7 @@
       <c r="I40" s="524"/>
       <c r="J40" s="525"/>
     </row>
-    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="513"/>
       <c r="B41" s="529" t="str">
         <f>Данные!$A$30</f>
@@ -10935,7 +11233,7 @@
       <c r="I41" s="527"/>
       <c r="J41" s="528"/>
     </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="512">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
@@ -10958,7 +11256,7 @@
       <c r="I42" s="524"/>
       <c r="J42" s="525"/>
     </row>
-    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="513"/>
       <c r="B43" s="529" t="str">
         <f>Данные!$A$30</f>
@@ -10973,7 +11271,7 @@
       <c r="I43" s="527"/>
       <c r="J43" s="528"/>
     </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="512">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
@@ -10996,7 +11294,7 @@
       <c r="I44" s="524"/>
       <c r="J44" s="525"/>
     </row>
-    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="513"/>
       <c r="B45" s="529" t="str">
         <f>Данные!$A$30</f>
@@ -11011,7 +11309,7 @@
       <c r="I45" s="527"/>
       <c r="J45" s="528"/>
     </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="512">
         <f t="shared" ref="A46:A48" si="9">A44+1</f>
         <v>12</v>
@@ -11034,7 +11332,7 @@
       <c r="I46" s="524"/>
       <c r="J46" s="525"/>
     </row>
-    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="513"/>
       <c r="B47" s="529" t="str">
         <f>Данные!$A$30</f>
@@ -11049,7 +11347,7 @@
       <c r="I47" s="527"/>
       <c r="J47" s="528"/>
     </row>
-    <row r="48" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="512">
         <f t="shared" si="9"/>
         <v>13</v>
@@ -11074,7 +11372,7 @@
       <c r="I48" s="524"/>
       <c r="J48" s="525"/>
     </row>
-    <row r="49" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="513"/>
       <c r="B49" s="529" t="str">
         <f>Данные!$A$30</f>
@@ -11089,7 +11387,7 @@
       <c r="I49" s="527"/>
       <c r="J49" s="528"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="310"/>
       <c r="B50" s="310"/>
       <c r="C50" s="310"/>
@@ -11101,7 +11399,7 @@
       <c r="I50" s="310"/>
       <c r="J50" s="311"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="310" t="s">
         <v>71</v>
       </c>
@@ -11115,7 +11413,7 @@
       <c r="I51" s="310"/>
       <c r="J51" s="311"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="310"/>
       <c r="B52" s="310"/>
       <c r="C52" s="310"/>
@@ -11127,7 +11425,7 @@
       <c r="I52" s="310"/>
       <c r="J52" s="311"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="310"/>
       <c r="B53" s="313" t="s">
         <v>72</v>
@@ -11143,7 +11441,7 @@
       <c r="I53" s="310"/>
       <c r="J53" s="311"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="310"/>
       <c r="B54" s="310"/>
       <c r="C54" s="310" t="s">
@@ -11157,7 +11455,7 @@
       <c r="I54" s="310"/>
       <c r="J54" s="311"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="310"/>
       <c r="B55" s="310"/>
       <c r="C55" s="310"/>
@@ -11169,7 +11467,7 @@
       <c r="I55" s="310"/>
       <c r="J55" s="311"/>
     </row>
-    <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="310"/>
       <c r="B56" s="310"/>
       <c r="C56" s="310"/>
@@ -11183,7 +11481,7 @@
       </c>
       <c r="J56" s="310"/>
     </row>
-    <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="310"/>
       <c r="B57" s="310"/>
       <c r="C57" s="310"/>
@@ -11194,7 +11492,7 @@
       <c r="I57" s="310"/>
       <c r="J57" s="310"/>
     </row>
-    <row r="58" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="310"/>
       <c r="B58" s="310"/>
       <c r="C58" s="310"/>
@@ -11207,14 +11505,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="307"/>
       <c r="B59" s="307"/>
       <c r="C59" s="307"/>
       <c r="D59" s="307"/>
       <c r="E59" s="307"/>
     </row>
-    <row r="60" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="307"/>
       <c r="B60" s="307"/>
       <c r="C60" s="307"/>
@@ -11324,7 +11622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11334,20 +11632,20 @@
       <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11368,7 +11666,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="550"/>
       <c r="C2" s="551"/>
@@ -11396,7 +11694,7 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="553"/>
       <c r="C3" s="554"/>
@@ -11419,7 +11717,7 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="556"/>
       <c r="C4" s="557"/>
@@ -11440,7 +11738,7 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="577" t="s">
         <v>13</v>
@@ -11466,7 +11764,7 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="577" t="s">
         <v>12</v>
@@ -11492,7 +11790,7 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="541" t="s">
         <v>14</v>
@@ -11523,7 +11821,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11544,7 +11842,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11577,7 +11875,7 @@
       <c r="R9" s="324"/>
       <c r="S9" s="196"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11610,7 +11908,7 @@
       <c r="R10" s="326"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>26</v>
@@ -11643,7 +11941,7 @@
       <c r="R11" s="328"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>2</v>
@@ -11676,7 +11974,7 @@
       <c r="R12" s="328"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>3</v>
@@ -11709,7 +12007,7 @@
       <c r="R13" s="328"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -11742,7 +12040,7 @@
       <c r="R14" s="328"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>9</v>
@@ -11775,7 +12073,7 @@
       <c r="R15" s="328"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>5</v>
@@ -11808,7 +12106,7 @@
       <c r="R16" s="328"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>30</v>
@@ -11841,7 +12139,7 @@
       <c r="R17" s="328"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>32</v>
@@ -11872,7 +12170,7 @@
       <c r="R18" s="330"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>33</v>
@@ -11905,7 +12203,7 @@
       <c r="R19" s="330"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -11936,7 +12234,7 @@
       <c r="R20" s="330"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="103" t="s">
         <v>40</v>
@@ -11969,7 +12267,7 @@
       <c r="R21" s="330"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="103" t="s">
         <v>41</v>
@@ -12002,7 +12300,7 @@
       <c r="R22" s="330"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
       <c r="B23" s="546" t="s">
         <v>57</v>
@@ -12029,7 +12327,7 @@
       <c r="R23" s="330"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
       <c r="B24" s="574" t="s">
         <v>45</v>
@@ -12056,7 +12354,7 @@
       <c r="R24" s="332"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="109"/>
       <c r="B25" s="110"/>
       <c r="C25" s="110"/>
@@ -12077,8 +12375,8 @@
       <c r="R25" s="112"/>
       <c r="S25" s="113"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K27" s="549" t="s">
         <v>136</v>
       </c>
@@ -12129,7 +12427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12139,20 +12437,20 @@
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12173,7 +12471,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="590">
         <f>'Чист. форма'!B2:D4</f>
@@ -12204,7 +12502,7 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="593"/>
       <c r="C3" s="594"/>
@@ -12227,7 +12525,7 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="596"/>
       <c r="C4" s="597"/>
@@ -12248,7 +12546,7 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="577" t="s">
         <v>13</v>
@@ -12274,7 +12572,7 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="577" t="s">
         <v>12</v>
@@ -12300,7 +12598,7 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="541" t="s">
         <v>14</v>
@@ -12331,7 +12629,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12352,7 +12650,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12385,7 +12683,7 @@
       <c r="R9" s="324"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12418,7 +12716,7 @@
       <c r="R10" s="326"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>28</v>
@@ -12451,7 +12749,7 @@
       <c r="R11" s="328"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>4</v>
@@ -12484,7 +12782,7 @@
       <c r="R12" s="328"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>5</v>
@@ -12517,7 +12815,7 @@
       <c r="R13" s="328"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="588" t="s">
         <v>135</v>
@@ -12544,7 +12842,7 @@
       <c r="R14" s="330"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="546" t="s">
         <v>141</v>
@@ -12569,7 +12867,7 @@
       <c r="R15" s="330"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
       <c r="B16" s="574" t="s">
         <v>45</v>
@@ -12596,7 +12894,7 @@
       <c r="R16" s="332"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="109"/>
       <c r="B17" s="110"/>
       <c r="C17" s="110"/>
@@ -12617,11 +12915,11 @@
       <c r="R17" s="112"/>
       <c r="S17" s="113"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="122"/>
       <c r="P18" s="123"/>
     </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="122"/>
       <c r="L19" s="549" t="s">
         <v>136</v>
@@ -12682,7 +12980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12692,20 +12990,20 @@
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.5546875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.5703125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12726,7 +13024,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="550"/>
       <c r="C2" s="551"/>
@@ -12754,7 +13052,7 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="553"/>
       <c r="C3" s="554"/>
@@ -12777,7 +13075,7 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="556"/>
       <c r="C4" s="557"/>
@@ -12798,7 +13096,7 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="577" t="s">
         <v>13</v>
@@ -12824,7 +13122,7 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="577" t="s">
         <v>12</v>
@@ -12850,7 +13148,7 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="541" t="s">
         <v>14</v>
@@ -12881,7 +13179,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12902,7 +13200,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12938,7 +13236,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12974,7 +13272,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>3</v>
@@ -13010,7 +13308,7 @@
       <c r="W11" s="100"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>27</v>
@@ -13046,7 +13344,7 @@
       <c r="W12" s="101"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>4</v>
@@ -13082,7 +13380,7 @@
       <c r="W13" s="101"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>5</v>
@@ -13118,7 +13416,7 @@
       <c r="W14" s="101"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>30</v>
@@ -13154,7 +13452,7 @@
       <c r="W15" s="100"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>31</v>
@@ -13190,7 +13488,7 @@
       <c r="W16" s="101"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="103" t="s">
         <v>32</v>
@@ -13226,7 +13524,7 @@
       <c r="W17" s="100"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>33</v>
@@ -13262,7 +13560,7 @@
       <c r="W18" s="100"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>34</v>
@@ -13298,7 +13596,7 @@
       <c r="W19" s="100"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -13331,7 +13629,7 @@
       <c r="R20" s="332"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="109"/>
       <c r="B21" s="110"/>
       <c r="C21" s="110"/>
@@ -13352,8 +13650,8 @@
       <c r="R21" s="112"/>
       <c r="S21" s="113"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L23" s="616" t="s">
         <v>136</v>
       </c>
@@ -13404,7 +13702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -13414,20 +13712,20 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
     <col min="8" max="18" width="9" style="5" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="0.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -13448,7 +13746,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="550"/>
       <c r="C2" s="551"/>
@@ -13476,7 +13774,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="553"/>
       <c r="C3" s="554"/>
@@ -13499,7 +13797,7 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="556"/>
       <c r="C4" s="557"/>
@@ -13520,7 +13818,7 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="577" t="s">
         <v>13</v>
@@ -13546,7 +13844,7 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="577" t="s">
         <v>12</v>
@@ -13572,7 +13870,7 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="541" t="s">
         <v>14</v>
@@ -13603,7 +13901,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -13624,7 +13922,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13657,7 +13955,7 @@
       <c r="R9" s="334"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -13690,7 +13988,7 @@
       <c r="R10" s="336"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -13723,7 +14021,7 @@
       <c r="R11" s="336"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -13756,7 +14054,7 @@
       <c r="R12" s="336"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -13789,7 +14087,7 @@
       <c r="R13" s="336"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -13822,7 +14120,7 @@
       <c r="R14" s="336"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -13855,7 +14153,7 @@
       <c r="R15" s="338"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -13876,8 +14174,8 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" spans="12:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L18" s="616" t="s">
         <v>136</v>
       </c>
@@ -13929,7 +14227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13942,20 +14240,20 @@
       <selection pane="bottomRight" activeCell="B20" sqref="B20:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13976,7 +14274,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="590"/>
       <c r="C2" s="591"/>
@@ -14004,7 +14302,7 @@
       <c r="R2" s="620"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="593"/>
       <c r="C3" s="594"/>
@@ -14027,7 +14325,7 @@
       <c r="R3" s="623"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="596"/>
       <c r="C4" s="597"/>
@@ -14048,7 +14346,7 @@
       <c r="R4" s="623"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="577" t="s">
         <v>13</v>
@@ -14074,7 +14372,7 @@
       <c r="R5" s="623"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="577" t="s">
         <v>12</v>
@@ -14100,7 +14398,7 @@
       <c r="R6" s="623"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="541" t="s">
         <v>14</v>
@@ -14131,7 +14429,7 @@
       <c r="R7" s="623"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14152,7 +14450,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="253" t="s">
         <v>17</v>
@@ -14185,7 +14483,7 @@
       <c r="R9" s="324"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -14218,7 +14516,7 @@
       <c r="R10" s="326"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="199" t="s">
         <v>26</v>
@@ -14251,7 +14549,7 @@
       <c r="R11" s="328"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="199" t="s">
         <v>2</v>
@@ -14284,7 +14582,7 @@
       <c r="R12" s="328"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="199" t="s">
         <v>3</v>
@@ -14317,7 +14615,7 @@
       <c r="R13" s="328"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -14350,7 +14648,7 @@
       <c r="R14" s="328"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>28</v>
@@ -14383,7 +14681,7 @@
       <c r="R15" s="328"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>9</v>
@@ -14416,7 +14714,7 @@
       <c r="R16" s="328"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>29</v>
@@ -14449,7 +14747,7 @@
       <c r="R17" s="328"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="96" t="s">
         <v>30</v>
@@ -14482,7 +14780,7 @@
       <c r="R18" s="328"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="96" t="s">
         <v>35</v>
@@ -14515,7 +14813,7 @@
       <c r="R19" s="328"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="574" t="s">
         <v>48</v>
@@ -14542,7 +14840,7 @@
       <c r="R20" s="332"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="109"/>
       <c r="B21" s="110"/>
       <c r="C21" s="110"/>
@@ -14563,10 +14861,10 @@
       <c r="R21" s="112"/>
       <c r="S21" s="113"/>
     </row>
-    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B22" s="122"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L23" s="616" t="s">
         <v>136</v>
       </c>
@@ -14577,8 +14875,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L23:N23"/>
@@ -14597,6 +14893,8 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14616,7 +14914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -14626,19 +14924,19 @@
       <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.140625" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14659,7 +14957,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="590"/>
       <c r="C2" s="591"/>
@@ -14687,7 +14985,7 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="593"/>
       <c r="C3" s="594"/>
@@ -14710,7 +15008,7 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="596"/>
       <c r="C4" s="597"/>
@@ -14731,7 +15029,7 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="577" t="s">
         <v>13</v>
@@ -14757,7 +15055,7 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="577" t="s">
         <v>12</v>
@@ -14783,7 +15081,7 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="541" t="s">
         <v>14</v>
@@ -14814,7 +15112,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14835,7 +15133,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="253" t="s">
         <v>17</v>
@@ -14868,7 +15166,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="128" t="s">
         <v>26</v>
@@ -14901,7 +15199,7 @@
       <c r="R10" s="99"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="128" t="s">
         <v>2</v>
@@ -14934,7 +15232,7 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="128" t="s">
         <v>3</v>
@@ -14967,7 +15265,7 @@
       <c r="R12" s="99"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="128" t="s">
         <v>27</v>
@@ -15000,7 +15298,7 @@
       <c r="R13" s="99"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="128" t="s">
         <v>9</v>
@@ -15033,7 +15331,7 @@
       <c r="R14" s="99"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="128" t="s">
         <v>5</v>
@@ -15066,7 +15364,7 @@
       <c r="R15" s="99"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
       <c r="B16" s="574" t="s">
         <v>50</v>
@@ -15093,7 +15391,7 @@
       <c r="R16" s="121"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="109"/>
       <c r="B17" s="127"/>
       <c r="C17" s="126"/>
@@ -15114,10 +15412,10 @@
       <c r="R17" s="112"/>
       <c r="S17" s="113"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="122"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L19" s="616" t="s">
         <v>136</v>
       </c>

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/ХХI-КПМ-30-1-500-Размова/ф-т ХХI-КПМ-30-1-500-Размова от 06.03.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/ХХI-КПМ-30-1-500-Размова/ф-т ХХI-КПМ-30-1-500-Размова от 06.03.2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\ХХI-КПМ-30-1-500-Размова\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38D44D8-8752-40C3-84EF-9A2EB4697BAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B25DCF-8CF2-465F-9318-7139D3ECC2E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -3584,6 +3584,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3628,11 +3634,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3651,11 +3656,6 @@
     <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3716,6 +3716,15 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3725,12 +3734,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3740,9 +3743,107 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3767,116 +3868,93 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3886,84 +3964,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -3994,6 +3994,9 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4001,9 +4004,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6752,25 +6752,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="489" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
+      <c r="B1" s="493"/>
+      <c r="C1" s="493"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="493"/>
       <c r="G1" s="370" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="488" t="s">
+      <c r="A2" s="490" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="489"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="490"/>
+      <c r="B2" s="491"/>
+      <c r="C2" s="491"/>
+      <c r="D2" s="491"/>
+      <c r="E2" s="492"/>
       <c r="G2" s="369" t="s">
         <v>78</v>
       </c>
@@ -6781,45 +6781,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="492" t="s">
+      <c r="A4" s="494" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="493"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="493"/>
-      <c r="E4" s="493"/>
+      <c r="B4" s="495"/>
+      <c r="C4" s="495"/>
+      <c r="D4" s="495"/>
+      <c r="E4" s="495"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="494" t="s">
+      <c r="A5" s="496" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="495"/>
-      <c r="C5" s="495"/>
-      <c r="D5" s="495"/>
-      <c r="E5" s="496"/>
+      <c r="B5" s="497"/>
+      <c r="C5" s="497"/>
+      <c r="D5" s="497"/>
+      <c r="E5" s="498"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="487" t="s">
+      <c r="A7" s="489" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="491"/>
-      <c r="C7" s="491"/>
-      <c r="D7" s="491"/>
-      <c r="E7" s="491"/>
+      <c r="B7" s="493"/>
+      <c r="C7" s="493"/>
+      <c r="D7" s="493"/>
+      <c r="E7" s="493"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="497"/>
-      <c r="B8" s="498"/>
-      <c r="C8" s="498"/>
-      <c r="D8" s="498"/>
-      <c r="E8" s="499"/>
+      <c r="A8" s="499"/>
+      <c r="B8" s="500"/>
+      <c r="C8" s="500"/>
+      <c r="D8" s="500"/>
+      <c r="E8" s="501"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="487" t="s">
+      <c r="A10" s="489" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="487"/>
+      <c r="B10" s="489"/>
       <c r="C10" s="371"/>
       <c r="D10" s="377" t="s">
         <v>92</v>
@@ -6830,33 +6830,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="485"/>
-      <c r="B11" s="486"/>
+      <c r="A11" s="487"/>
+      <c r="B11" s="488"/>
       <c r="D11" s="376">
         <v>43896</v>
       </c>
-      <c r="F11" s="500" t="s">
+      <c r="F11" s="484" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="500"/>
-      <c r="H11" s="500"/>
-      <c r="I11" s="500"/>
-      <c r="J11" s="501" t="s">
+      <c r="G11" s="484"/>
+      <c r="H11" s="484"/>
+      <c r="I11" s="484"/>
+      <c r="J11" s="485" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="501"/>
+      <c r="K11" s="485"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="500" t="s">
+      <c r="F12" s="484" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="500"/>
-      <c r="H12" s="500"/>
-      <c r="I12" s="500"/>
-      <c r="J12" s="501" t="s">
+      <c r="G12" s="484"/>
+      <c r="H12" s="484"/>
+      <c r="I12" s="484"/>
+      <c r="J12" s="485" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="501"/>
+      <c r="K12" s="485"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="381" t="s">
@@ -6874,16 +6874,16 @@
       <c r="E13" s="481" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="500" t="s">
+      <c r="F13" s="484" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="500"/>
-      <c r="H13" s="500"/>
-      <c r="I13" s="500"/>
-      <c r="J13" s="501" t="s">
+      <c r="G13" s="484"/>
+      <c r="H13" s="484"/>
+      <c r="I13" s="484"/>
+      <c r="J13" s="485" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="501"/>
+      <c r="K13" s="485"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="372" t="s">
@@ -7136,11 +7136,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="484" t="s">
+      <c r="A29" s="486" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="484"/>
-      <c r="C29" s="484"/>
+      <c r="B29" s="486"/>
+      <c r="C29" s="486"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -7149,12 +7149,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7164,6 +7158,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7217,24 +7217,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="169"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="170"/>
       <c r="N2" s="171"/>
       <c r="O2" s="172"/>
@@ -7245,19 +7245,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="169"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="175"/>
       <c r="N3" s="176"/>
       <c r="O3" s="176"/>
@@ -7268,9 +7268,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="169"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -7289,22 +7289,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="169"/>
-      <c r="B5" s="577" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="613"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="614"/>
-      <c r="J5" s="615"/>
-      <c r="K5" s="586"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="178"/>
       <c r="N5" s="176"/>
       <c r="O5" s="176"/>
@@ -7315,22 +7315,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="169"/>
-      <c r="B6" s="577" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="613"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="582"/>
-      <c r="F6" s="582"/>
-      <c r="G6" s="582"/>
-      <c r="H6" s="583"/>
-      <c r="I6" s="614"/>
-      <c r="J6" s="615"/>
-      <c r="K6" s="586"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="175"/>
       <c r="N6" s="176"/>
       <c r="O6" s="176"/>
@@ -7341,27 +7341,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="169"/>
-      <c r="B7" s="541" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="585"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="543"/>
-      <c r="F7" s="543"/>
-      <c r="G7" s="543"/>
-      <c r="H7" s="544"/>
-      <c r="I7" s="584" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="585"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="178"/>
       <c r="N7" s="176"/>
       <c r="O7" s="176"/>
@@ -7756,6 +7756,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7767,14 +7775,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7840,47 +7840,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="208"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="209"/>
       <c r="N2" s="210"/>
       <c r="O2" s="211"/>
-      <c r="P2" s="629"/>
-      <c r="Q2" s="629"/>
+      <c r="P2" s="626"/>
+      <c r="Q2" s="626"/>
       <c r="R2" s="212"/>
       <c r="S2" s="213"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="208"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="214"/>
       <c r="N3" s="215"/>
       <c r="O3" s="215"/>
@@ -7891,9 +7891,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="208"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -7912,22 +7912,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="208"/>
-      <c r="B5" s="577" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="613"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="614"/>
-      <c r="J5" s="615"/>
-      <c r="K5" s="586"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="217"/>
       <c r="N5" s="215"/>
       <c r="O5" s="215"/>
@@ -7938,22 +7938,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="208"/>
-      <c r="B6" s="577" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="613"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="582"/>
-      <c r="F6" s="582"/>
-      <c r="G6" s="582"/>
-      <c r="H6" s="583"/>
-      <c r="I6" s="614"/>
-      <c r="J6" s="615"/>
-      <c r="K6" s="586"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="214"/>
       <c r="N6" s="215"/>
       <c r="O6" s="215"/>
@@ -7964,27 +7964,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="208"/>
-      <c r="B7" s="541" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="585"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="543"/>
-      <c r="F7" s="543"/>
-      <c r="G7" s="543"/>
-      <c r="H7" s="544"/>
-      <c r="I7" s="584" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="585"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="217"/>
       <c r="N7" s="215"/>
       <c r="O7" s="215"/>
@@ -8313,12 +8313,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="218"/>
-      <c r="B18" s="626" t="s">
+      <c r="B18" s="627" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="627"/>
-      <c r="D18" s="627"/>
-      <c r="E18" s="628"/>
+      <c r="C18" s="628"/>
+      <c r="D18" s="628"/>
+      <c r="E18" s="629"/>
       <c r="F18" s="115" t="s">
         <v>16</v>
       </c>
@@ -8371,6 +8371,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
@@ -8381,16 +8391,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8465,24 +8465,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="132"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="133"/>
       <c r="N2" s="134"/>
       <c r="O2" s="135"/>
@@ -8493,19 +8493,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="132"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="138"/>
       <c r="N3" s="139"/>
       <c r="O3" s="139"/>
@@ -8516,9 +8516,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="132"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -8537,22 +8537,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="132"/>
-      <c r="B5" s="577" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="613"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="614"/>
-      <c r="J5" s="615"/>
-      <c r="K5" s="586"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="141"/>
       <c r="N5" s="139"/>
       <c r="O5" s="139"/>
@@ -8563,22 +8563,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="132"/>
-      <c r="B6" s="577" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="613"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="582"/>
-      <c r="F6" s="582"/>
-      <c r="G6" s="582"/>
-      <c r="H6" s="583"/>
-      <c r="I6" s="614"/>
-      <c r="J6" s="615"/>
-      <c r="K6" s="586"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="138"/>
       <c r="N6" s="139"/>
       <c r="O6" s="139"/>
@@ -8589,27 +8589,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="132"/>
-      <c r="B7" s="541" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="585"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="543"/>
-      <c r="F7" s="543"/>
-      <c r="G7" s="543"/>
-      <c r="H7" s="544"/>
-      <c r="I7" s="584" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="585"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="141"/>
       <c r="N7" s="139"/>
       <c r="O7" s="139"/>
@@ -8999,6 +8999,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9010,14 +9018,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9083,19 +9083,19 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="265"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
+      <c r="J2" s="600"/>
       <c r="K2" s="632">
         <f>Данные!B23</f>
         <v>20</v>
@@ -9111,17 +9111,17 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="265"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
       <c r="K3" s="634"/>
       <c r="L3" s="635"/>
       <c r="M3" s="271"/>
@@ -9134,9 +9134,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="265"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -9155,22 +9155,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="265"/>
-      <c r="B5" s="577" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="613"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="614"/>
-      <c r="J5" s="615"/>
-      <c r="K5" s="586"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="274"/>
       <c r="N5" s="272"/>
       <c r="O5" s="272"/>
@@ -9181,22 +9181,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="265"/>
-      <c r="B6" s="577" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="613"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="582"/>
-      <c r="F6" s="582"/>
-      <c r="G6" s="582"/>
-      <c r="H6" s="583"/>
-      <c r="I6" s="614"/>
-      <c r="J6" s="615"/>
-      <c r="K6" s="586"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="271"/>
       <c r="N6" s="272"/>
       <c r="O6" s="272"/>
@@ -9207,27 +9207,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="265"/>
-      <c r="B7" s="541" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="585"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="543"/>
-      <c r="F7" s="543"/>
-      <c r="G7" s="543"/>
-      <c r="H7" s="544"/>
-      <c r="I7" s="584" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="585"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="274"/>
       <c r="N7" s="272"/>
       <c r="O7" s="272"/>
@@ -9509,6 +9509,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -9525,9 +9528,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9556,7 +9556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -9612,17 +9612,17 @@
       <c r="L2" s="388"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="504" t="s">
+      <c r="A3" s="507" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="504"/>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="504"/>
-      <c r="F3" s="504"/>
-      <c r="G3" s="504"/>
-      <c r="H3" s="504"/>
-      <c r="I3" s="504"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="507"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
+      <c r="H3" s="507"/>
+      <c r="I3" s="507"/>
       <c r="K3" s="389"/>
       <c r="L3" s="389"/>
       <c r="M3" s="390"/>
@@ -10342,12 +10342,12 @@
       <c r="J35" s="390"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="505" t="s">
+      <c r="A36" s="508" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="505"/>
-      <c r="C36" s="505"/>
-      <c r="D36" s="505"/>
+      <c r="B36" s="508"/>
+      <c r="C36" s="508"/>
+      <c r="D36" s="508"/>
       <c r="E36" s="390"/>
       <c r="F36" s="390"/>
       <c r="G36" s="390"/>
@@ -10356,10 +10356,10 @@
       <c r="J36" s="390"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="506" t="s">
+      <c r="A37" s="509" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="506"/>
+      <c r="B37" s="509"/>
       <c r="C37" s="469" t="s">
         <v>130</v>
       </c>
@@ -10374,11 +10374,11 @@
       <c r="J37" s="390"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="507">
+      <c r="A38" s="510">
         <f>A21-F32</f>
         <v>15888329</v>
       </c>
-      <c r="B38" s="508"/>
+      <c r="B38" s="511"/>
       <c r="C38" s="470">
         <f>1-G32</f>
         <v>0.94573386904761902</v>
@@ -10440,8 +10440,8 @@
       <c r="F42" s="474"/>
       <c r="G42" s="474"/>
       <c r="H42" s="474"/>
-      <c r="I42" s="509"/>
-      <c r="J42" s="510"/>
+      <c r="I42" s="502"/>
+      <c r="J42" s="503"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="475"/>
@@ -10535,9 +10535,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="390"/>
-      <c r="B52" s="502"/>
-      <c r="C52" s="502"/>
-      <c r="D52" s="503"/>
+      <c r="B52" s="505"/>
+      <c r="C52" s="505"/>
+      <c r="D52" s="506"/>
       <c r="E52" s="472"/>
       <c r="F52" s="390"/>
       <c r="G52" s="390"/>
@@ -10554,8 +10554,8 @@
       <c r="F53" s="474"/>
       <c r="G53" s="474"/>
       <c r="H53" s="474"/>
-      <c r="I53" s="509"/>
-      <c r="J53" s="510"/>
+      <c r="I53" s="502"/>
+      <c r="J53" s="503"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="475"/>
@@ -10566,8 +10566,8 @@
       <c r="F54" s="420"/>
       <c r="G54" s="420"/>
       <c r="H54" s="476"/>
-      <c r="I54" s="511"/>
-      <c r="J54" s="511"/>
+      <c r="I54" s="504"/>
+      <c r="J54" s="504"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="475"/>
@@ -10578,8 +10578,8 @@
       <c r="F55" s="410"/>
       <c r="G55" s="410"/>
       <c r="H55" s="410"/>
-      <c r="I55" s="511"/>
-      <c r="J55" s="511"/>
+      <c r="I55" s="504"/>
+      <c r="J55" s="504"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="390"/>
@@ -10592,26 +10592,26 @@
       <c r="H56" s="390"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="509"/>
-      <c r="C61" s="510"/>
+      <c r="B61" s="502"/>
+      <c r="C61" s="503"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="509"/>
-      <c r="C68" s="510"/>
+      <c r="B68" s="502"/>
+      <c r="C68" s="503"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10626,8 +10626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K60"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A43" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10694,47 +10694,47 @@
       <c r="J8" s="316"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="533" t="s">
+      <c r="A11" s="536" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="533"/>
-      <c r="C11" s="533"/>
-      <c r="D11" s="533"/>
-      <c r="E11" s="533"/>
-      <c r="F11" s="533"/>
-      <c r="G11" s="533"/>
-      <c r="H11" s="533"/>
-      <c r="I11" s="533"/>
-      <c r="J11" s="533"/>
+      <c r="B11" s="536"/>
+      <c r="C11" s="536"/>
+      <c r="D11" s="536"/>
+      <c r="E11" s="536"/>
+      <c r="F11" s="536"/>
+      <c r="G11" s="536"/>
+      <c r="H11" s="536"/>
+      <c r="I11" s="536"/>
+      <c r="J11" s="536"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="532" t="s">
+      <c r="A12" s="535" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="532"/>
-      <c r="C12" s="532"/>
-      <c r="D12" s="532"/>
-      <c r="E12" s="532"/>
-      <c r="F12" s="532"/>
-      <c r="G12" s="532"/>
-      <c r="H12" s="532"/>
-      <c r="I12" s="532"/>
-      <c r="J12" s="532"/>
+      <c r="B12" s="535"/>
+      <c r="C12" s="535"/>
+      <c r="D12" s="535"/>
+      <c r="E12" s="535"/>
+      <c r="F12" s="535"/>
+      <c r="G12" s="535"/>
+      <c r="H12" s="535"/>
+      <c r="I12" s="535"/>
+      <c r="J12" s="535"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="534" t="str">
+      <c r="A13" s="537" t="str">
         <f>Данные!A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="B13" s="533"/>
-      <c r="C13" s="533"/>
-      <c r="D13" s="533"/>
-      <c r="E13" s="533"/>
-      <c r="F13" s="533"/>
-      <c r="G13" s="533"/>
-      <c r="H13" s="533"/>
-      <c r="I13" s="533"/>
-      <c r="J13" s="533"/>
+      <c r="B13" s="536"/>
+      <c r="C13" s="536"/>
+      <c r="D13" s="536"/>
+      <c r="E13" s="536"/>
+      <c r="F13" s="536"/>
+      <c r="G13" s="536"/>
+      <c r="H13" s="536"/>
+      <c r="I13" s="536"/>
+      <c r="J13" s="536"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="310" t="s">
@@ -10859,48 +10859,48 @@
       <c r="J21" s="311"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="535" t="s">
+      <c r="A22" s="533" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="535" t="s">
+      <c r="B22" s="533" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="535"/>
-      <c r="D22" s="535"/>
-      <c r="E22" s="535" t="s">
+      <c r="C22" s="533"/>
+      <c r="D22" s="533"/>
+      <c r="E22" s="533" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="535"/>
-      <c r="G22" s="540" t="s">
+      <c r="F22" s="533"/>
+      <c r="G22" s="534" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="535" t="s">
+      <c r="H22" s="533" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="535"/>
-      <c r="J22" s="535"/>
+      <c r="I22" s="533"/>
+      <c r="J22" s="533"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="535"/>
-      <c r="B23" s="535"/>
-      <c r="C23" s="535"/>
-      <c r="D23" s="535"/>
-      <c r="E23" s="535"/>
-      <c r="F23" s="535"/>
-      <c r="G23" s="540"/>
-      <c r="H23" s="535"/>
-      <c r="I23" s="535"/>
-      <c r="J23" s="535"/>
+      <c r="A23" s="533"/>
+      <c r="B23" s="533"/>
+      <c r="C23" s="533"/>
+      <c r="D23" s="533"/>
+      <c r="E23" s="533"/>
+      <c r="F23" s="533"/>
+      <c r="G23" s="534"/>
+      <c r="H23" s="533"/>
+      <c r="I23" s="533"/>
+      <c r="J23" s="533"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="512">
         <v>1</v>
       </c>
-      <c r="B24" s="537" t="s">
+      <c r="B24" s="538" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="538"/>
-      <c r="D24" s="539"/>
+      <c r="C24" s="539"/>
+      <c r="D24" s="540"/>
       <c r="E24" s="517" t="str">
         <f>Данные!C14</f>
         <v>Razmova 0.5 l</v>
@@ -10922,7 +10922,7 @@
       </c>
       <c r="C25" s="530"/>
       <c r="D25" s="531"/>
-      <c r="E25" s="536"/>
+      <c r="E25" s="532"/>
       <c r="F25" s="520"/>
       <c r="G25" s="522"/>
       <c r="H25" s="526"/>
@@ -10960,7 +10960,7 @@
       </c>
       <c r="C27" s="530"/>
       <c r="D27" s="531"/>
-      <c r="E27" s="536"/>
+      <c r="E27" s="532"/>
       <c r="F27" s="520"/>
       <c r="G27" s="522"/>
       <c r="H27" s="526"/>
@@ -10998,7 +10998,7 @@
       </c>
       <c r="C29" s="530"/>
       <c r="D29" s="531"/>
-      <c r="E29" s="536"/>
+      <c r="E29" s="532"/>
       <c r="F29" s="520"/>
       <c r="G29" s="522"/>
       <c r="H29" s="526"/>
@@ -11528,70 +11528,12 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:J49"/>
+    <mergeCell ref="B49:D49"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11608,16 +11550,74 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:J49"/>
-    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11668,47 +11668,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="550"/>
-      <c r="C2" s="551"/>
-      <c r="D2" s="552"/>
-      <c r="E2" s="559" t="s">
+      <c r="B2" s="542"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="551" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="560"/>
-      <c r="G2" s="560"/>
-      <c r="H2" s="561"/>
-      <c r="I2" s="566" t="s">
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="558" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="567"/>
-      <c r="K2" s="570">
+      <c r="J2" s="559"/>
+      <c r="K2" s="562">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="571"/>
+      <c r="L2" s="563"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="562"/>
-      <c r="Q2" s="562"/>
+      <c r="P2" s="554"/>
+      <c r="Q2" s="554"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="553"/>
-      <c r="C3" s="554"/>
-      <c r="D3" s="555"/>
-      <c r="E3" s="563" t="s">
+      <c r="B3" s="545"/>
+      <c r="C3" s="546"/>
+      <c r="D3" s="547"/>
+      <c r="E3" s="555" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="564"/>
-      <c r="G3" s="564"/>
-      <c r="H3" s="565"/>
-      <c r="I3" s="568"/>
-      <c r="J3" s="569"/>
-      <c r="K3" s="572"/>
-      <c r="L3" s="573"/>
+      <c r="F3" s="556"/>
+      <c r="G3" s="556"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="560"/>
+      <c r="J3" s="561"/>
+      <c r="K3" s="564"/>
+      <c r="L3" s="565"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11719,9 +11719,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="556"/>
-      <c r="C4" s="557"/>
-      <c r="D4" s="558"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="550"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11740,22 +11740,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="577" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="578"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="579"/>
-      <c r="J5" s="580"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11766,22 +11766,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="577" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="581"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="582"/>
-      <c r="F6" s="582"/>
-      <c r="G6" s="582"/>
-      <c r="H6" s="583"/>
-      <c r="I6" s="579"/>
-      <c r="J6" s="580"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11792,27 +11792,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="541" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="542"/>
-      <c r="D7" s="497">
+      <c r="C7" s="577"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="543"/>
-      <c r="F7" s="543"/>
-      <c r="G7" s="543"/>
-      <c r="H7" s="544"/>
-      <c r="I7" s="541" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="545"/>
-      <c r="K7" s="485">
+      <c r="J7" s="580"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12302,12 +12302,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="546" t="s">
+      <c r="B23" s="581" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="547"/>
-      <c r="D23" s="547"/>
-      <c r="E23" s="548"/>
+      <c r="C23" s="582"/>
+      <c r="D23" s="582"/>
+      <c r="E23" s="583"/>
       <c r="F23" s="115" t="s">
         <v>16</v>
       </c>
@@ -12329,12 +12329,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="574" t="s">
+      <c r="B24" s="566" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="575"/>
-      <c r="D24" s="575"/>
-      <c r="E24" s="576"/>
+      <c r="C24" s="567"/>
+      <c r="D24" s="567"/>
+      <c r="E24" s="568"/>
       <c r="F24" s="115" t="s">
         <v>16</v>
       </c>
@@ -12377,16 +12377,21 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="549" t="s">
+      <c r="K27" s="541" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="549"/>
-      <c r="M27" s="549"/>
+      <c r="L27" s="541"/>
+      <c r="M27" s="541"/>
       <c r="N27" s="482"/>
       <c r="O27" s="482"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="E2:H2"/>
@@ -12403,11 +12408,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B23:E23"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -12473,50 +12473,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="590">
+      <c r="B2" s="584">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="562"/>
-      <c r="Q2" s="562"/>
+      <c r="P2" s="554"/>
+      <c r="Q2" s="554"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12527,9 +12527,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -12548,22 +12548,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="577" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="613"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="614"/>
-      <c r="J5" s="615"/>
-      <c r="K5" s="586"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12574,22 +12574,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="577" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="613"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="582"/>
-      <c r="F6" s="582"/>
-      <c r="G6" s="582"/>
-      <c r="H6" s="583"/>
-      <c r="I6" s="614"/>
-      <c r="J6" s="615"/>
-      <c r="K6" s="586"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12600,27 +12600,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="541" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="585"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="543"/>
-      <c r="F7" s="543"/>
-      <c r="G7" s="543"/>
-      <c r="H7" s="544"/>
-      <c r="I7" s="584" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="585"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12817,12 +12817,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="588" t="s">
+      <c r="B14" s="614" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="589"/>
-      <c r="D14" s="589"/>
-      <c r="E14" s="589"/>
+      <c r="C14" s="615"/>
+      <c r="D14" s="615"/>
+      <c r="E14" s="615"/>
       <c r="F14" s="115" t="s">
         <v>16</v>
       </c>
@@ -12844,13 +12844,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="546" t="s">
+      <c r="B15" s="581" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="547"/>
-      <c r="D15" s="547"/>
-      <c r="E15" s="547"/>
-      <c r="F15" s="587"/>
+      <c r="C15" s="582"/>
+      <c r="D15" s="582"/>
+      <c r="E15" s="582"/>
+      <c r="F15" s="613"/>
       <c r="G15" s="56" t="s">
         <v>76</v>
       </c>
@@ -12869,12 +12869,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="574" t="s">
+      <c r="B16" s="566" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="575"/>
-      <c r="D16" s="575"/>
-      <c r="E16" s="576"/>
+      <c r="C16" s="567"/>
+      <c r="D16" s="567"/>
+      <c r="E16" s="568"/>
       <c r="F16" s="115" t="s">
         <v>16</v>
       </c>
@@ -12921,16 +12921,22 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="122"/>
-      <c r="L19" s="549" t="s">
+      <c r="L19" s="541" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="549"/>
-      <c r="N19" s="549"/>
+      <c r="M19" s="541"/>
+      <c r="N19" s="541"/>
       <c r="O19" s="482"/>
       <c r="P19" s="482"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="E2:H2"/>
@@ -12947,12 +12953,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -13026,47 +13026,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="550"/>
-      <c r="C2" s="551"/>
-      <c r="D2" s="552"/>
-      <c r="E2" s="559" t="s">
+      <c r="B2" s="542"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="551" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="560"/>
-      <c r="G2" s="560"/>
-      <c r="H2" s="561"/>
-      <c r="I2" s="566" t="s">
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="558" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="567"/>
-      <c r="K2" s="570">
+      <c r="J2" s="559"/>
+      <c r="K2" s="562">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="571"/>
+      <c r="L2" s="563"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="562"/>
-      <c r="Q2" s="562"/>
+      <c r="P2" s="554"/>
+      <c r="Q2" s="554"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="553"/>
-      <c r="C3" s="554"/>
-      <c r="D3" s="555"/>
-      <c r="E3" s="563" t="s">
+      <c r="B3" s="545"/>
+      <c r="C3" s="546"/>
+      <c r="D3" s="547"/>
+      <c r="E3" s="555" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="564"/>
-      <c r="G3" s="564"/>
-      <c r="H3" s="565"/>
-      <c r="I3" s="568"/>
-      <c r="J3" s="569"/>
-      <c r="K3" s="572"/>
-      <c r="L3" s="573"/>
+      <c r="F3" s="556"/>
+      <c r="G3" s="556"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="560"/>
+      <c r="J3" s="561"/>
+      <c r="K3" s="564"/>
+      <c r="L3" s="565"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13077,9 +13077,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="556"/>
-      <c r="C4" s="557"/>
-      <c r="D4" s="558"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="550"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13098,22 +13098,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="577" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="578"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="579"/>
-      <c r="J5" s="580"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13124,22 +13124,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="577" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="581"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="582"/>
-      <c r="F6" s="582"/>
-      <c r="G6" s="582"/>
-      <c r="H6" s="583"/>
-      <c r="I6" s="579"/>
-      <c r="J6" s="580"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13150,27 +13150,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="541" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="542"/>
-      <c r="D7" s="497">
+      <c r="C7" s="577"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="543"/>
-      <c r="F7" s="543"/>
-      <c r="G7" s="543"/>
-      <c r="H7" s="544"/>
-      <c r="I7" s="541" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="545"/>
-      <c r="K7" s="485">
+      <c r="J7" s="580"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13662,11 +13662,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13681,6 +13676,11 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13748,24 +13748,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="550"/>
-      <c r="C2" s="551"/>
-      <c r="D2" s="552"/>
-      <c r="E2" s="559" t="s">
+      <c r="B2" s="542"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="551" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="560"/>
-      <c r="G2" s="560"/>
-      <c r="H2" s="561"/>
-      <c r="I2" s="566" t="s">
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="558" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="567"/>
-      <c r="K2" s="570">
+      <c r="J2" s="559"/>
+      <c r="K2" s="562">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="571"/>
+      <c r="L2" s="563"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -13776,19 +13776,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="553"/>
-      <c r="C3" s="554"/>
-      <c r="D3" s="555"/>
-      <c r="E3" s="563" t="s">
+      <c r="B3" s="545"/>
+      <c r="C3" s="546"/>
+      <c r="D3" s="547"/>
+      <c r="E3" s="555" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="564"/>
-      <c r="G3" s="564"/>
-      <c r="H3" s="565"/>
-      <c r="I3" s="568"/>
-      <c r="J3" s="569"/>
-      <c r="K3" s="572"/>
-      <c r="L3" s="573"/>
+      <c r="F3" s="556"/>
+      <c r="G3" s="556"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="560"/>
+      <c r="J3" s="561"/>
+      <c r="K3" s="564"/>
+      <c r="L3" s="565"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13799,9 +13799,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="556"/>
-      <c r="C4" s="557"/>
-      <c r="D4" s="558"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="550"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13820,22 +13820,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="577" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="578"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="579"/>
-      <c r="J5" s="580"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13846,22 +13846,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="577" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="581"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="582"/>
-      <c r="F6" s="582"/>
-      <c r="G6" s="582"/>
-      <c r="H6" s="583"/>
-      <c r="I6" s="579"/>
-      <c r="J6" s="580"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13872,27 +13872,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="541" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="542"/>
-      <c r="D7" s="497">
+      <c r="C7" s="577"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="543"/>
-      <c r="F7" s="543"/>
-      <c r="G7" s="543"/>
-      <c r="H7" s="544"/>
-      <c r="I7" s="541" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="545"/>
-      <c r="K7" s="485">
+      <c r="J7" s="580"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14186,6 +14186,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
@@ -14196,15 +14205,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14276,24 +14276,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="618"/>
       <c r="N2" s="619"/>
       <c r="O2" s="619"/>
@@ -14304,19 +14304,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="621"/>
       <c r="N3" s="622"/>
       <c r="O3" s="622"/>
@@ -14327,9 +14327,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -14348,22 +14348,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="577" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="613"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="614"/>
-      <c r="J5" s="615"/>
-      <c r="K5" s="586"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="621"/>
       <c r="N5" s="622"/>
       <c r="O5" s="622"/>
@@ -14374,22 +14374,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="577" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="613"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="582"/>
-      <c r="F6" s="582"/>
-      <c r="G6" s="582"/>
-      <c r="H6" s="583"/>
-      <c r="I6" s="614"/>
-      <c r="J6" s="615"/>
-      <c r="K6" s="586"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="621"/>
       <c r="N6" s="622"/>
       <c r="O6" s="622"/>
@@ -14400,27 +14400,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="541" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="585"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="543"/>
-      <c r="F7" s="543"/>
-      <c r="G7" s="543"/>
-      <c r="H7" s="544"/>
-      <c r="I7" s="584" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="585"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="621"/>
       <c r="N7" s="622"/>
       <c r="O7" s="622"/>
@@ -14815,12 +14815,12 @@
     </row>
     <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="574" t="s">
+      <c r="B20" s="566" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="575"/>
-      <c r="D20" s="575"/>
-      <c r="E20" s="576"/>
+      <c r="C20" s="567"/>
+      <c r="D20" s="567"/>
+      <c r="E20" s="568"/>
       <c r="F20" s="115" t="s">
         <v>16</v>
       </c>
@@ -14875,6 +14875,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L23:N23"/>
@@ -14891,10 +14895,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14959,24 +14959,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -14987,19 +14987,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -15010,9 +15010,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="249"/>
       <c r="F4" s="249"/>
       <c r="G4" s="249"/>
@@ -15031,22 +15031,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="577" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="613"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="614"/>
-      <c r="J5" s="615"/>
-      <c r="K5" s="586"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15057,22 +15057,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="577" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="613"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХХI-КПМ-30-1-500-Размова</v>
       </c>
-      <c r="E6" s="582"/>
-      <c r="F6" s="582"/>
-      <c r="G6" s="582"/>
-      <c r="H6" s="583"/>
-      <c r="I6" s="614"/>
-      <c r="J6" s="615"/>
-      <c r="K6" s="586"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15083,27 +15083,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="541" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="585"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="543"/>
-      <c r="F7" s="543"/>
-      <c r="G7" s="543"/>
-      <c r="H7" s="544"/>
-      <c r="I7" s="584" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="585"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15366,12 +15366,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="574" t="s">
+      <c r="B16" s="566" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="575"/>
-      <c r="D16" s="575"/>
-      <c r="E16" s="576"/>
+      <c r="C16" s="567"/>
+      <c r="D16" s="567"/>
+      <c r="E16" s="568"/>
       <c r="F16" s="258" t="s">
         <v>16</v>
       </c>
@@ -15426,11 +15426,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B2:D4"/>
@@ -15446,6 +15441,11 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
